--- a/Файл для Task_Manager exe.xlsx
+++ b/Файл для Task_Manager exe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\maxim\учёбы\Учёба 6 семестр\Задания Каппа Рус\kappa_rus_Task_Manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91FF72B-E34E-4A8D-81AF-2D956C26C633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B200EB45-7AD8-432E-BC39-BD87100150F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,9 +142,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -441,67 +443,80 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78929801-B74D-4E74-9651-9B75F43F7EB1}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F1" sqref="F1:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.88671875" customWidth="1"/>
     <col min="2" max="2" width="55.44140625" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F4" s="2"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F5" s="2"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F6" s="2"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -509,7 +524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -517,7 +532,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -525,7 +540,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -533,7 +548,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -541,7 +556,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -549,7 +564,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>

--- a/Файл для Task_Manager exe.xlsx
+++ b/Файл для Task_Manager exe.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\maxim\учёбы\Учёба 6 семестр\Задания Каппа Рус\kappa_rus_Task_Manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B200EB45-7AD8-432E-BC39-BD87100150F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD25125-FAAE-4BA8-BA4B-B46CD572A2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Параметры" sheetId="1" r:id="rId1"/>
-    <sheet name="Названия станков и журналов" sheetId="2" r:id="rId2"/>
+    <sheet name="Названия станков и журналов" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -428,25 +427,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78929801-B74D-4E74-9651-9B75F43F7EB1}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:M6"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Файл для Task_Manager exe.xlsx
+++ b/Файл для Task_Manager exe.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\maxim\учёбы\Учёба 6 семестр\Задания Каппа Рус\kappa_rus_Task_Manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD25125-FAAE-4BA8-BA4B-B46CD572A2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396EA513-159E-45A2-BDF3-97E5F6CDCF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Названия станков и журналов" sheetId="2" r:id="rId1"/>
+    <sheet name="Параметры" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Гофроагрегат</t>
   </si>
@@ -100,6 +101,18 @@
   </si>
   <si>
     <t>Относительный путь к журналу неисправностей</t>
+  </si>
+  <si>
+    <t>Параметр</t>
+  </si>
+  <si>
+    <t>Значение</t>
+  </si>
+  <si>
+    <t>Путь к папке с файлом из яндекс форм</t>
+  </si>
+  <si>
+    <t>C:\Users\gorya\Downloads</t>
   </si>
 </sst>
 </file>
@@ -430,7 +443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78929801-B74D-4E74-9651-9B75F43F7EB1}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -560,4 +573,39 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D333249B-4E6E-47EE-9689-98C568B941EE}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="42.21875" customWidth="1"/>
+    <col min="2" max="2" width="55.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>